--- a/Excel & CSV Sheets/Hamilton County Accident System/Old Negative Sampling/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Hamilton County Accident System/Old Negative Sampling/Day Holder 2019.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miste\PycharmProjects\SCAL_USIgnite-911\Excel &amp; CSV Sheets\Hamilton County Accident System\Old Negative Sampling\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FC776C-D92F-43EF-A896-2BBC3CDF70C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Days" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Days" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,21 +27,20 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">Day_Number</t>
+    <t>Day_Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Date</t>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -45,22 +49,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -76,99 +65,387 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="3">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B142"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B177"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A141" activeCellId="0" sqref="A141:A142"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F167" sqref="F167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -176,1141 +453,1416 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="4">
         <v>43466</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="4">
         <v>43467</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="4">
         <v>43468</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="4">
         <v>43469</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="4">
         <v>43470</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="4">
         <v>43471</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="4">
         <v>43472</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="4">
         <v>43473</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="4">
         <v>43474</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="4">
         <v>43475</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="4">
         <v>43476</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="4">
         <v>43477</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="4">
         <v>43478</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="4">
         <v>43479</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="4">
         <v>43480</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="4">
         <v>43481</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="4">
         <v>43482</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="4">
         <v>43483</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="4">
         <v>43484</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="4">
         <v>43485</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="4">
         <v>43486</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="4">
         <v>43487</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="4">
         <v>43488</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="4">
         <v>43489</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="4">
         <v>43490</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="4">
         <v>43491</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="4">
         <v>43492</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="4">
         <v>43493</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="4">
         <v>43494</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="4">
         <v>43495</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="4">
         <v>43496</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="4">
         <v>43497</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="4">
         <v>43498</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="4">
         <v>43499</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="4">
         <v>43500</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="4">
         <v>43501</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="4">
         <v>43502</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="4">
         <v>43503</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="4">
         <v>43504</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="4">
         <v>43505</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="4">
         <v>43506</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="4">
         <v>43507</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="4">
         <v>43508</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="4">
         <v>43509</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="4">
         <v>43510</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="4">
         <v>43511</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="4">
         <v>43512</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="4">
         <v>43513</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="4">
         <v>43514</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="4">
         <v>43515</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="4">
         <v>43516</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="4">
         <v>43517</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="4">
         <v>43518</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="4">
         <v>43519</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="4">
         <v>43520</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="4">
         <v>43521</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="4">
         <v>43522</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="4">
         <v>43523</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="4">
         <v>43524</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="4">
         <v>43525</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="4">
         <v>43526</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="4">
         <v>43527</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="4">
         <v>43528</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="4">
         <v>43529</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="4">
         <v>43530</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="4">
         <v>43531</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="n">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="4">
         <v>43532</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="n">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="4">
         <v>43533</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="n">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="4">
         <v>43534</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="n">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="4">
         <v>43535</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="n">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>71</v>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="4">
         <v>43536</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="n">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="4">
         <v>43537</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="n">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="4">
         <v>43538</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="n">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>74</v>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="4">
         <v>43539</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="n">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="4">
         <v>43540</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="n">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="4">
         <v>43541</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="n">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="4">
         <v>43542</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="n">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>78</v>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="4">
         <v>43543</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="n">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>79</v>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="4">
         <v>43544</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="n">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>80</v>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="4">
         <v>43545</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="n">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>81</v>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="4">
         <v>43546</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="n">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>82</v>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="4">
         <v>43547</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="n">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>83</v>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="4">
         <v>43548</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="n">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>84</v>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="4">
         <v>43549</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="n">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>85</v>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="4">
         <v>43550</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="n">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <v>86</v>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="4">
         <v>43551</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="n">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <v>87</v>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="4">
         <v>43552</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="n">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <v>88</v>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="4">
         <v>43553</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="n">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <v>89</v>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="4">
         <v>43554</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="n">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <v>90</v>
       </c>
-      <c r="B91" s="4" t="n">
+      <c r="B91" s="4">
         <v>43555</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="n">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <v>91</v>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="4">
         <v>43556</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="n">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <v>92</v>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="4">
         <v>43557</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="n">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <v>93</v>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="4">
         <v>43558</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="n">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <v>94</v>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="4">
         <v>43559</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="n">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <v>95</v>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="4">
         <v>43560</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="n">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <v>96</v>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="4">
         <v>43561</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="n">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <v>97</v>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="4">
         <v>43562</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="n">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <v>98</v>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="4">
         <v>43563</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="n">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <v>99</v>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="4">
         <v>43564</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="n">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <v>100</v>
       </c>
-      <c r="B101" s="4" t="n">
+      <c r="B101" s="4">
         <v>43565</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="n">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <v>101</v>
       </c>
-      <c r="B102" s="4" t="n">
+      <c r="B102" s="4">
         <v>43566</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="n">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <v>102</v>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="4">
         <v>43567</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="3" t="n">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <v>103</v>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="4">
         <v>43568</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="n">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
         <v>104</v>
       </c>
-      <c r="B105" s="4" t="n">
+      <c r="B105" s="4">
         <v>43569</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="3" t="n">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <v>105</v>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="4">
         <v>43570</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="3" t="n">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <v>106</v>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="4">
         <v>43571</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="3" t="n">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
         <v>107</v>
       </c>
-      <c r="B108" s="4" t="n">
+      <c r="B108" s="4">
         <v>43572</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="3" t="n">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
         <v>108</v>
       </c>
-      <c r="B109" s="4" t="n">
+      <c r="B109" s="4">
         <v>43573</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="3" t="n">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
         <v>109</v>
       </c>
-      <c r="B110" s="4" t="n">
+      <c r="B110" s="4">
         <v>43574</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="3" t="n">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
         <v>110</v>
       </c>
-      <c r="B111" s="4" t="n">
+      <c r="B111" s="4">
         <v>43575</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="3" t="n">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
         <v>111</v>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="4">
         <v>43576</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="3" t="n">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
         <v>112</v>
       </c>
-      <c r="B113" s="4" t="n">
+      <c r="B113" s="4">
         <v>43577</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="3" t="n">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
         <v>113</v>
       </c>
-      <c r="B114" s="4" t="n">
+      <c r="B114" s="4">
         <v>43578</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="3" t="n">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
         <v>114</v>
       </c>
-      <c r="B115" s="4" t="n">
+      <c r="B115" s="4">
         <v>43579</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="3" t="n">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
         <v>115</v>
       </c>
-      <c r="B116" s="4" t="n">
+      <c r="B116" s="4">
         <v>43580</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="3" t="n">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
         <v>116</v>
       </c>
-      <c r="B117" s="4" t="n">
+      <c r="B117" s="4">
         <v>43581</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="3" t="n">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
         <v>117</v>
       </c>
-      <c r="B118" s="4" t="n">
+      <c r="B118" s="4">
         <v>43582</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="3" t="n">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
         <v>118</v>
       </c>
-      <c r="B119" s="4" t="n">
+      <c r="B119" s="4">
         <v>43583</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="3" t="n">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
         <v>119</v>
       </c>
-      <c r="B120" s="4" t="n">
+      <c r="B120" s="4">
         <v>43584</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="3" t="n">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
         <v>120</v>
       </c>
-      <c r="B121" s="4" t="n">
+      <c r="B121" s="4">
         <v>43585</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="3" t="n">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
         <v>121</v>
       </c>
-      <c r="B122" s="4" t="n">
+      <c r="B122" s="4">
         <v>43586</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="3" t="n">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
         <v>122</v>
       </c>
-      <c r="B123" s="4" t="n">
+      <c r="B123" s="4">
         <v>43587</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="3" t="n">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
         <v>123</v>
       </c>
-      <c r="B124" s="4" t="n">
+      <c r="B124" s="4">
         <v>43588</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="3" t="n">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
         <v>124</v>
       </c>
-      <c r="B125" s="4" t="n">
+      <c r="B125" s="4">
         <v>43589</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="3" t="n">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
         <v>125</v>
       </c>
-      <c r="B126" s="4" t="n">
+      <c r="B126" s="4">
         <v>43590</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="3" t="n">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
         <v>126</v>
       </c>
-      <c r="B127" s="4" t="n">
+      <c r="B127" s="4">
         <v>43591</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="3" t="n">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
         <v>127</v>
       </c>
-      <c r="B128" s="4" t="n">
+      <c r="B128" s="4">
         <v>43592</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="3" t="n">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
         <v>128</v>
       </c>
-      <c r="B129" s="4" t="n">
+      <c r="B129" s="4">
         <v>43593</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="3" t="n">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
         <v>129</v>
       </c>
-      <c r="B130" s="4" t="n">
+      <c r="B130" s="4">
         <v>43594</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="3" t="n">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
         <v>130</v>
       </c>
-      <c r="B131" s="4" t="n">
+      <c r="B131" s="4">
         <v>43595</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="3" t="n">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
         <v>131</v>
       </c>
-      <c r="B132" s="4" t="n">
+      <c r="B132" s="4">
         <v>43596</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="3" t="n">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
         <v>132</v>
       </c>
-      <c r="B133" s="4" t="n">
+      <c r="B133" s="4">
         <v>43597</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="3" t="n">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
         <v>133</v>
       </c>
-      <c r="B134" s="4" t="n">
+      <c r="B134" s="4">
         <v>43598</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="3" t="n">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
         <v>134</v>
       </c>
-      <c r="B135" s="4" t="n">
+      <c r="B135" s="4">
         <v>43599</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="3" t="n">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
         <v>135</v>
       </c>
-      <c r="B136" s="4" t="n">
+      <c r="B136" s="4">
         <v>43600</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="3" t="n">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
         <v>136</v>
       </c>
-      <c r="B137" s="4" t="n">
+      <c r="B137" s="4">
         <v>43601</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="3" t="n">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
         <v>137</v>
       </c>
-      <c r="B138" s="4" t="n">
+      <c r="B138" s="4">
         <v>43602</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="3" t="n">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
         <v>138</v>
       </c>
-      <c r="B139" s="4" t="n">
+      <c r="B139" s="4">
         <v>43603</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="3" t="n">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
         <v>139</v>
       </c>
-      <c r="B140" s="4" t="n">
+      <c r="B140" s="4">
         <v>43604</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="3" t="n">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
         <v>140</v>
       </c>
-      <c r="B141" s="4" t="n">
+      <c r="B141" s="4">
         <v>43605</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="3" t="n">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
         <v>141</v>
       </c>
-      <c r="B142" s="4" t="n">
+      <c r="B142" s="4">
         <v>43606</v>
       </c>
     </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="5">
+        <v>142</v>
+      </c>
+      <c r="B143" s="4">
+        <v>43607</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>143</v>
+      </c>
+      <c r="B144" s="4">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="5">
+        <v>144</v>
+      </c>
+      <c r="B145" s="4">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>145</v>
+      </c>
+      <c r="B146" s="4">
+        <v>43610</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="5">
+        <v>146</v>
+      </c>
+      <c r="B147" s="4">
+        <v>43611</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>147</v>
+      </c>
+      <c r="B148" s="4">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="5">
+        <v>148</v>
+      </c>
+      <c r="B149" s="4">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>149</v>
+      </c>
+      <c r="B150" s="4">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="5">
+        <v>150</v>
+      </c>
+      <c r="B151" s="4">
+        <v>43615</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>151</v>
+      </c>
+      <c r="B152" s="4">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="5">
+        <v>152</v>
+      </c>
+      <c r="B153" s="4">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>153</v>
+      </c>
+      <c r="B154" s="4">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="5">
+        <v>154</v>
+      </c>
+      <c r="B155" s="4">
+        <v>43619</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>155</v>
+      </c>
+      <c r="B156" s="4">
+        <v>43620</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="5">
+        <v>156</v>
+      </c>
+      <c r="B157" s="4">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>157</v>
+      </c>
+      <c r="B158" s="4">
+        <v>43622</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="5">
+        <v>158</v>
+      </c>
+      <c r="B159" s="4">
+        <v>43623</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>159</v>
+      </c>
+      <c r="B160" s="4">
+        <v>43624</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="5">
+        <v>160</v>
+      </c>
+      <c r="B161" s="4">
+        <v>43625</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>161</v>
+      </c>
+      <c r="B162" s="4">
+        <v>43626</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="5">
+        <v>162</v>
+      </c>
+      <c r="B163" s="4">
+        <v>43627</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>163</v>
+      </c>
+      <c r="B164" s="4">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="5">
+        <v>164</v>
+      </c>
+      <c r="B165" s="4">
+        <v>43629</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>165</v>
+      </c>
+      <c r="B166" s="4">
+        <v>43630</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="5">
+        <v>166</v>
+      </c>
+      <c r="B167" s="4">
+        <v>43631</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>167</v>
+      </c>
+      <c r="B168" s="4">
+        <v>43632</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="5">
+        <v>168</v>
+      </c>
+      <c r="B169" s="4">
+        <v>43633</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>169</v>
+      </c>
+      <c r="B170" s="4">
+        <v>43634</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="5">
+        <v>170</v>
+      </c>
+      <c r="B171" s="4">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>171</v>
+      </c>
+      <c r="B172" s="4">
+        <v>43636</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="5">
+        <v>172</v>
+      </c>
+      <c r="B173" s="4">
+        <v>43637</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>173</v>
+      </c>
+      <c r="B174" s="4">
+        <v>43638</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="5">
+        <v>174</v>
+      </c>
+      <c r="B175" s="4">
+        <v>43639</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>175</v>
+      </c>
+      <c r="B176" s="4">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="5">
+        <v>176</v>
+      </c>
+      <c r="B177" s="4">
+        <v>43641</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>